--- a/Srs/SRS A1D1 PI8.xlsx
+++ b/Srs/SRS A1D1 PI8.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zuydhogeschool-my.sharepoint.com/personal/2202168peuling_zuyd_nl/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lars Peuling\Desktop\A1D1 pt2\Srs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="326" documentId="8_{14EE7E48-8A6D-45F7-858C-B53E5B3AB79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EC17390-0940-4B26-B897-124EDBDC5A42}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9439FC09-9261-4AF6-8A9D-5C5E2A338EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C5AD3C99-19A0-41F0-83FB-CFB58567DC2A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C5AD3C99-19A0-41F0-83FB-CFB58567DC2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
-    <sheet name="User Stories" sheetId="2" r:id="rId2"/>
+    <sheet name="Use Cases" sheetId="3" r:id="rId2"/>
+    <sheet name="User Stories" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="280">
   <si>
     <t>Code</t>
   </si>
@@ -596,13 +597,331 @@
   </si>
   <si>
     <t>ik fouten kan corrigeren voordat ik definitief afreken</t>
+  </si>
+  <si>
+    <t>Naam</t>
+  </si>
+  <si>
+    <t>Beschrijving</t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>Preconditie</t>
+  </si>
+  <si>
+    <t>Postconditie</t>
+  </si>
+  <si>
+    <t>Stappen</t>
+  </si>
+  <si>
+    <t>Hoofdscenario</t>
+  </si>
+  <si>
+    <t>Altscenario</t>
+  </si>
+  <si>
+    <t>Foutscenario</t>
+  </si>
+  <si>
+    <t>Create Customer</t>
+  </si>
+  <si>
+    <t>UC1</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>De Employee is in het systeem</t>
+  </si>
+  <si>
+    <t>Een Customer is aangemaakt</t>
+  </si>
+  <si>
+    <t>1. Het systeem laat de Main Page zien</t>
+  </si>
+  <si>
+    <t>3. Het systeem laat de Customer Page zien</t>
+  </si>
+  <si>
+    <t>4. De Employee klikt op "Add Customer"</t>
+  </si>
+  <si>
+    <t>5. Het systeem laat de Add Customer Page zien</t>
+  </si>
+  <si>
+    <t>6. De Employee vult de benodigde velden in</t>
+  </si>
+  <si>
+    <t>7. De Employee klikt op "Add Customer"</t>
+  </si>
+  <si>
+    <t>8. Het systeem slaat de Customer op in de database</t>
+  </si>
+  <si>
+    <t>9. Het systeem laat de Customer Page zien</t>
+  </si>
+  <si>
+    <t>8a. Het systeem laat een foutmelding zien</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6a,7,8a,6,7,8,9</t>
+  </si>
+  <si>
+    <t>(De Employee maakt succesvol een Customer aan)</t>
+  </si>
+  <si>
+    <t>(De Employee vult verkeerde of geen velden in)</t>
+  </si>
+  <si>
+    <t>Update Customer</t>
+  </si>
+  <si>
+    <t>UC2</t>
+  </si>
+  <si>
+    <t>Deze Usecase geeft de functionaliteiten weer van het aanmaken van een customer, in deze use case wordt alleen het aspect create van CRUD weergegeven</t>
+  </si>
+  <si>
+    <t>Een Customer is geüpdate</t>
+  </si>
+  <si>
+    <t>2. De Employee klikt op "Customer"</t>
+  </si>
+  <si>
+    <t>4. De Employee klikt op de customer die hij wilt veranderen</t>
+  </si>
+  <si>
+    <t>5. Het systeem laat een formulier zien met de gegevens van de geselecteerde customer</t>
+  </si>
+  <si>
+    <t>6. De Employee vult de nieuwe gegevens in</t>
+  </si>
+  <si>
+    <t>7. De Employee klikt op "Save"</t>
+  </si>
+  <si>
+    <t>8. Het systeem slaat de customer op in de database</t>
+  </si>
+  <si>
+    <t>6a. De Employee vult geen of verkeerde gegevens in.</t>
+  </si>
+  <si>
+    <t>6a. De Employee vult geen of verkeerde gegevens in</t>
+  </si>
+  <si>
+    <t>(De Employee update succesvol een Customer)</t>
+  </si>
+  <si>
+    <t>Remove Customer</t>
+  </si>
+  <si>
+    <t>UC3</t>
+  </si>
+  <si>
+    <t>Een Customer is verwijderd</t>
+  </si>
+  <si>
+    <t>4. De Employee klikt op "Remove Customer"</t>
+  </si>
+  <si>
+    <t>5. Het systeem laat de Remove Customer Page zien</t>
+  </si>
+  <si>
+    <t>6. De Employee klikt op de Customer die hij wilt verwijderen.</t>
+  </si>
+  <si>
+    <t>7. De Employee klikt op "Remove Customer"</t>
+  </si>
+  <si>
+    <t>8. Het systeem laat een melding zien</t>
+  </si>
+  <si>
+    <t>9. De Employee klikt op "Ja"</t>
+  </si>
+  <si>
+    <t>9a. De Employee klikt op "Nee"</t>
+  </si>
+  <si>
+    <t>10. Het systeem verwijderd de Customer uit de database</t>
+  </si>
+  <si>
+    <t>11. Het systeem laat de Customer Page zien</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9a,11</t>
+  </si>
+  <si>
+    <t>(De Employee verwijderd succesvol een Customer)</t>
+  </si>
+  <si>
+    <t>(De Employee verwijderd geen Customer)</t>
+  </si>
+  <si>
+    <t>Add Stock</t>
+  </si>
+  <si>
+    <t>UC4</t>
+  </si>
+  <si>
+    <t>Deze Usecase geeft de functionaliteiten weer van het aanmaken van Stock, in deze use case wordt alleen het aspect create van CRUD weergegeven</t>
+  </si>
+  <si>
+    <t>Stock is aangemaakt</t>
+  </si>
+  <si>
+    <t>2. De Employee klikt op "Stock"</t>
+  </si>
+  <si>
+    <t>3. Het systeem laat de Stock Page zien</t>
+  </si>
+  <si>
+    <t>4. De Employee klikt op "Add Stock"</t>
+  </si>
+  <si>
+    <t>5. Het systeem laat de Add Stock Page zien</t>
+  </si>
+  <si>
+    <t>7. De Employee klikt op "Add Stock"</t>
+  </si>
+  <si>
+    <t>9. Het systeem laat de Stock Page zien</t>
+  </si>
+  <si>
+    <t>8. Het systeem slaat de Stock op in de database</t>
+  </si>
+  <si>
+    <t>(De Employee maakt succesvol Stock aan)</t>
+  </si>
+  <si>
+    <t>Update Stock</t>
+  </si>
+  <si>
+    <t>UC5</t>
+  </si>
+  <si>
+    <t>Stock is geüpdate</t>
+  </si>
+  <si>
+    <t>5. Het systeem laat een formulier zien met de gegevens van de geselecteerde Stock</t>
+  </si>
+  <si>
+    <t>4. De Employee klikt op de Stock die hij wilt veranderen</t>
+  </si>
+  <si>
+    <t>(De Employee update succesvol Stock)</t>
+  </si>
+  <si>
+    <t>Remove Stock</t>
+  </si>
+  <si>
+    <t>Stock is verwijderd</t>
+  </si>
+  <si>
+    <t>5. Het systeem laat de Remove Stock Page zien</t>
+  </si>
+  <si>
+    <t>4. De Employee klikt op "Remove Stock"</t>
+  </si>
+  <si>
+    <t>6. De Employee klikt op de Stock die hij wilt verwijderen.</t>
+  </si>
+  <si>
+    <t>7. De Employee klikt op "Remove Stock"</t>
+  </si>
+  <si>
+    <t>10. Het systeem verwijderd de Stock uit de database</t>
+  </si>
+  <si>
+    <t>11. Het systeem laat de Stock Page zien</t>
+  </si>
+  <si>
+    <t>(De Employee verwijderd succesvol Stock)</t>
+  </si>
+  <si>
+    <t>(De Employee verwijderd geen Stock)</t>
+  </si>
+  <si>
+    <t>UC6</t>
+  </si>
+  <si>
+    <t>Add to Basket</t>
+  </si>
+  <si>
+    <t>UC7</t>
+  </si>
+  <si>
+    <t>Deze Usecase geeft de fucnctionaliteiten weer van het deleten van Stock, in deze use case wordt alleen het aspect delete van CRUD weergegeven</t>
+  </si>
+  <si>
+    <t>Deze Usecase geeft de fucnctionaliteiten weer van het updaten van Stock, in deze use case wordt alleen het aspect update van CRUD weergegeven</t>
+  </si>
+  <si>
+    <t>Deze Usecase geeft de fucnctionaliteiten weer van het deleten van een customer, in deze use case wordt alleen het aspect delete van CRUD weergegeven</t>
+  </si>
+  <si>
+    <t>Deze Usecase geeft de fucnctionaliteiten weer van het updaten van een customer, in deze use case wordt alleen het aspect update van CRUD weergegeven</t>
+  </si>
+  <si>
+    <t>Deze Usecase geeft de fucnctionaliteiten weer van een product toevoegen aan je basket, in deze use case worden alleen de create en update aspecten van CRUD weergegeven</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Customer is in de app</t>
+  </si>
+  <si>
+    <t>Customer heeft product aan basket toegevoegd</t>
+  </si>
+  <si>
+    <t>2. De Customer klikt op het gewenste product</t>
+  </si>
+  <si>
+    <t>3. De Customer klikt op "Add to Basket"</t>
+  </si>
+  <si>
+    <t>4. Het systeem zet het gewenste product in de Basket</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>Remove from Basket</t>
+  </si>
+  <si>
+    <t>UC8</t>
+  </si>
+  <si>
+    <t>Deze Usecase geeft de fucnctionaliteiten weer van een product verwijderen van je basket, in deze use case wordt alleen het delet aspect van CRUD weergegeven</t>
+  </si>
+  <si>
+    <t>Customer heeft product uit de basket verwijderd</t>
+  </si>
+  <si>
+    <t>2. De Customer klikt "Basket"</t>
+  </si>
+  <si>
+    <t>3. De Customer klikt op "Remove from Basket"</t>
+  </si>
+  <si>
+    <t>4. Het systeem verwijderd het gewenste product uit de Basket</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,6 +981,18 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -695,7 +1026,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -723,6 +1054,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -738,6 +1083,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1059,11 +1408,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE93ECD-1A65-44A4-BF18-978FFEC3EA55}">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="110.140625" style="7" customWidth="1"/>
@@ -1076,7 +1425,7 @@
     <col min="9" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1102,7 +1451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1122,7 +1471,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1142,7 +1491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1162,7 +1511,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1182,7 +1531,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -1202,7 +1551,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
@@ -1222,7 +1571,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -1240,7 +1589,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
@@ -1258,7 +1607,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -1276,7 +1625,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
@@ -1294,7 +1643,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -1312,7 +1661,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -1330,7 +1679,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>40</v>
       </c>
@@ -1348,7 +1697,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
@@ -1366,7 +1715,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
@@ -1384,7 +1733,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
@@ -1402,7 +1751,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>48</v>
       </c>
@@ -1420,7 +1769,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>50</v>
       </c>
@@ -1438,7 +1787,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>52</v>
       </c>
@@ -1456,7 +1805,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>54</v>
       </c>
@@ -1474,7 +1823,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>56</v>
       </c>
@@ -1492,7 +1841,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>58</v>
       </c>
@@ -1510,7 +1859,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>60</v>
       </c>
@@ -1528,7 +1877,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>62</v>
       </c>
@@ -1546,7 +1895,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>64</v>
       </c>
@@ -1564,7 +1913,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>66</v>
       </c>
@@ -1582,7 +1931,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>68</v>
       </c>
@@ -1600,7 +1949,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>70</v>
       </c>
@@ -1618,7 +1967,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>72</v>
       </c>
@@ -1636,7 +1985,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>74</v>
       </c>
@@ -1654,7 +2003,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>76</v>
       </c>
@@ -1672,7 +2021,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>78</v>
       </c>
@@ -1690,7 +2039,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>80</v>
       </c>
@@ -1708,7 +2057,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>82</v>
       </c>
@@ -1726,7 +2075,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>84</v>
       </c>
@@ -1744,7 +2093,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>86</v>
       </c>
@@ -1762,7 +2111,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>88</v>
       </c>
@@ -1776,7 +2125,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>91</v>
       </c>
@@ -1790,7 +2139,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>93</v>
       </c>
@@ -1804,7 +2153,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>95</v>
       </c>
@@ -1818,7 +2167,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>97</v>
       </c>
@@ -1832,7 +2181,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>99</v>
       </c>
@@ -1846,7 +2195,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>101</v>
       </c>
@@ -1860,7 +2209,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>103</v>
       </c>
@@ -1874,7 +2223,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>105</v>
       </c>
@@ -1888,7 +2237,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>107</v>
       </c>
@@ -1902,7 +2251,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>109</v>
       </c>
@@ -1916,7 +2265,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>111</v>
       </c>
@@ -1930,7 +2279,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>113</v>
       </c>
@@ -1944,7 +2293,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>115</v>
       </c>
@@ -1958,7 +2307,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>117</v>
       </c>
@@ -1972,7 +2321,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>119</v>
       </c>
@@ -1986,7 +2335,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>121</v>
       </c>
@@ -2000,7 +2349,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>123</v>
       </c>
@@ -2014,7 +2363,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>125</v>
       </c>
@@ -2028,7 +2377,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>127</v>
       </c>
@@ -2042,7 +2391,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>129</v>
       </c>
@@ -2056,7 +2405,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>131</v>
       </c>
@@ -2070,7 +2419,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>133</v>
       </c>
@@ -2091,6 +2440,1014 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00723FCC-7BFD-4C78-A806-4C3FA7DE9F20}">
+  <dimension ref="B2:D189"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J180" sqref="J180"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="18.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="B4" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="C11" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="C13" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="C14" s="15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="C17" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="B28" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C33" s="15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="C35" s="15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="D36" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="C37" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C38" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D39" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D40" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="C41" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D42" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="B58" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B61" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B62" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C63" s="15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D64" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="C65" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D66" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="C67" s="15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="C68" s="15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D69" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C70" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="D71" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C72" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D73" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B74" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B75" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B76" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B80" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="B82" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B84" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B86" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C87" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D88" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C89" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D90" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="C91" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C92" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D93" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D94" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="C95" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D96" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B97" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B98" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B99" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B104" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B105" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="B106" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B107" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C107" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B108" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B109" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B110" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C111" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D112" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="C113" s="15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="D114" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="C115" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C116" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D117" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D118" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="C119" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D120" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B121" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C121" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B122" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C122" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B123" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B134" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C134" s="15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B135" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C135" s="15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="B136" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C136" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B137" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C137" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B138" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C138" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B139" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C139" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B140" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C141" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D142" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="C143" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D144" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="C145" s="15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="C146" s="15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D147" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C148" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="D149" s="12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C150" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D151" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B152" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C152" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D152" s="12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B153" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C153" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="D153" s="12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B154" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B163" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C163" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B164" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C164" s="15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B165" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C165" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B166" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C166" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B167" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C167" s="15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="B168" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C168" s="15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B169" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D169" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="C170" s="15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="C171" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="D172" s="12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B173" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C173" s="15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B174" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B175" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B177" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C177" s="15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B178" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C178" s="15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="B179" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C179" s="15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B180" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C180" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B181" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C181" s="15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="B182" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C182" s="15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B183" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D183" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C184" s="15" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="C185" s="15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="D186" s="12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B187" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C187" s="15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B188" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B189" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E2DEED-EE75-4F01-805D-457B8B5F067B}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -2098,7 +3455,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="90.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -2106,7 +3463,7 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>135</v>
       </c>
@@ -2117,7 +3474,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>138</v>
       </c>
@@ -2128,7 +3485,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>138</v>
       </c>
@@ -2139,7 +3496,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>138</v>
       </c>
@@ -2150,7 +3507,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>138</v>
       </c>
@@ -2161,7 +3518,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>138</v>
       </c>
@@ -2172,7 +3529,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>138</v>
       </c>
@@ -2183,7 +3540,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>138</v>
       </c>
@@ -2194,7 +3551,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>138</v>
       </c>
@@ -2205,7 +3562,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>155</v>
       </c>
@@ -2216,7 +3573,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>138</v>
       </c>
@@ -2227,7 +3584,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>160</v>
       </c>
@@ -2238,7 +3595,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>155</v>
       </c>
@@ -2249,7 +3606,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>160</v>
       </c>
@@ -2260,7 +3617,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>155</v>
       </c>
@@ -2271,7 +3628,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>160</v>
       </c>
@@ -2282,7 +3639,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>138</v>
       </c>
@@ -2293,7 +3650,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>160</v>
       </c>
@@ -2310,6 +3667,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a30eeb53-b90e-4e74-9143-57fb759eb3f4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BB91AAFDCCDE5A46BE52FE0E667188AB" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b20ad2d57891062fa0c18c2621c2fbfd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a30eeb53-b90e-4e74-9143-57fb759eb3f4" xmlns:ns4="d923f2c3-e3e8-4f30-9dc8-d0b3c6f387e2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ad8ba5f85885289dcf66aa06e9dc74c" ns3:_="" ns4:_="">
     <xsd:import namespace="a30eeb53-b90e-4e74-9143-57fb759eb3f4"/>
@@ -2542,31 +3916,46 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="a30eeb53-b90e-4e74-9143-57fb759eb3f4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC61300B-BD96-4B2E-88FD-618E000EACC3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBC4EAA7-E11E-4E61-806A-F807BD88D97C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D22C9323-094B-44F2-9427-4ED41FE207DE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D22C9323-094B-44F2-9427-4ED41FE207DE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="d923f2c3-e3e8-4f30-9dc8-d0b3c6f387e2"/>
+    <ds:schemaRef ds:uri="a30eeb53-b90e-4e74-9143-57fb759eb3f4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBC4EAA7-E11E-4E61-806A-F807BD88D97C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC61300B-BD96-4B2E-88FD-618E000EACC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a30eeb53-b90e-4e74-9143-57fb759eb3f4"/>
+    <ds:schemaRef ds:uri="d923f2c3-e3e8-4f30-9dc8-d0b3c6f387e2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>